--- a/regions/2/soflis meurneoba/2. mravaltslovani kulturebis tsarmoeba.xlsx
+++ b/regions/2/soflis meurneoba/2. mravaltslovani kulturebis tsarmoeba.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\სამეგრელო-ზემო სვანეთი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\სამეგრელო-ზემო სვანეთი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF655E14-BA41-4E0C-8816-758B62328DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>მანდარინი</t>
   </si>
@@ -149,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -245,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,15 +262,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -316,10 +306,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -328,10 +315,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,23 +412,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -474,23 +447,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -680,28 +636,30 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -751,8 +709,14 @@
       <c r="Q2" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="R2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -804,8 +768,14 @@
       <c r="Q3" s="7">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="R3" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="S3" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -857,8 +827,14 @@
       <c r="Q4" s="7">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="R4" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -910,8 +886,14 @@
       <c r="Q5" s="8">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="R5" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="S5" s="8">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -963,8 +945,14 @@
       <c r="Q6" s="7">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="R6" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S6" s="7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1016,8 +1004,14 @@
       <c r="Q7" s="5">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="R7" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1069,8 +1063,14 @@
       <c r="Q8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="R8" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1122,8 +1122,14 @@
       <c r="Q9" s="5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1138,28 +1144,30 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="4">
         <v>2006</v>
@@ -1209,8 +1217,14 @@
       <c r="Q12" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="R12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1262,8 +1276,14 @@
       <c r="Q13" s="7">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="R13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1315,8 +1335,14 @@
       <c r="Q14" s="8">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="R14" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S14" s="8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1368,8 +1394,12 @@
       <c r="Q15" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="R15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1421,8 +1451,14 @@
       <c r="Q16" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="R16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1474,8 +1510,14 @@
       <c r="Q17" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="R17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1527,8 +1569,14 @@
       <c r="Q18" s="8">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="R18" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="S18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1580,8 +1628,14 @@
       <c r="Q19" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="R19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1633,8 +1687,14 @@
       <c r="Q20" s="5">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="R20" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="S20" s="5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -1686,8 +1746,14 @@
       <c r="Q21" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+      <c r="R21" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>1</v>
       </c>
@@ -1739,8 +1805,14 @@
       <c r="Q22" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+      <c r="R22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
@@ -1792,77 +1864,83 @@
       <c r="Q23" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="13" t="s">
+      <c r="R23" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="14" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-    </row>
-    <row r="26" spans="1:17" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:19" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A11:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
